--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>FirstRun, Business, Process</t>
+  </si>
+  <si>
+    <t>wbGetDataTask_Type</t>
+  </si>
+  <si>
+    <t>wbGetDataTask_SuppressSuccessful</t>
+  </si>
+  <si>
+    <t>FirstRun, Framework, GetData Service</t>
   </si>
 </sst>
 </file>
@@ -1669,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1890,10 +1899,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -1901,7 +1910,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1912,10 +1921,10 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -1923,7 +1932,7 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1934,10 +1943,10 @@
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -1945,7 +1954,7 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1956,10 +1965,10 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
@@ -1967,7 +1976,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1978,10 +1987,10 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -1989,31 +1998,51 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2963,8 +2992,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -210,15 +210,6 @@
   </si>
   <si>
     <t>FirstRun, Business, Process</t>
-  </si>
-  <si>
-    <t>wbGetDataTask_Type</t>
-  </si>
-  <si>
-    <t>wbGetDataTask_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>FirstRun, Framework, GetData Service</t>
   </si>
 </sst>
 </file>
@@ -1678,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1899,10 +1890,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -1910,7 +1901,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1921,10 +1912,10 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -1932,7 +1923,7 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1943,10 +1934,10 @@
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -1954,7 +1945,7 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1965,10 +1956,10 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
@@ -1976,7 +1967,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1987,10 +1978,10 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -1998,51 +1989,31 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2990,8 +2961,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>FirstRun, Business, Process</t>
+  </si>
+  <si>
+    <t>MaxInitRetryNumber</t>
+  </si>
+  <si>
+    <t>If &gt; 0 will retry the Initialisation state with a failed exception.</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1678,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1729,7 +1735,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>19</v>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -13,15 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Workblocks" sheetId="4" r:id="rId2"/>
+    <sheet name="Constants" sheetId="2" r:id="rId3"/>
+    <sheet name="Assets" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -1674,11 +1675,201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z995"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE325D7-4482-47A6-A6F6-6E2DBC946231}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z996"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1746,274 +1937,134 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>5000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>30000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>120000</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>15000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>60000</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>0.6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>0.9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2977,16 +3028,19 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>If &gt; 0 will retry the Initialisation state with a failed exception.</t>
+  </si>
+  <si>
+    <t>FillNumber</t>
+  </si>
+  <si>
+    <t>How many doubles to genrate</t>
   </si>
 </sst>
 </file>
@@ -585,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -676,7 +682,17 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1678,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE325D7-4482-47A6-A6F6-6E2DBC946231}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE325D7-4482-47A6-A6F6-6E2DBC946231}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE325D7-4482-47A6-A6F6-6E2DBC946231}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -689,7 +689,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -1696,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE325D7-4482-47A6-A6F6-6E2DBC946231}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -594,7 +594,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -168,12 +168,6 @@
     <t>wbProcessTransaction_SuppressSuccessful</t>
   </si>
   <si>
-    <t>wbNextTransaction_Type</t>
-  </si>
-  <si>
-    <t>wbNextTransaction_SuppressSuccessful</t>
-  </si>
-  <si>
     <t>wbCloseAllApplications_Type</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
   </si>
   <si>
     <t>Process</t>
-  </si>
-  <si>
-    <t>Next</t>
   </si>
   <si>
     <t>CloseApps</t>
@@ -593,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -686,13 +677,13 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2">
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1694,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE325D7-4482-47A6-A6F6-6E2DBC946231}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1747,10 +1738,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1758,7 +1749,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1772,7 +1763,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -1794,7 +1785,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -1816,7 +1807,7 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -1838,7 +1829,7 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -1860,7 +1851,7 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -1871,31 +1862,9 @@
         <v>53</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1968,13 +1937,13 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
   </si>
   <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with application exception. Must be integer</t>
-  </si>
-  <si>
     <t>TimeoutShort</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>MaxInitRetryNumber</t>
   </si>
   <si>
-    <t>If &gt; 0 will retry the Initialisation state with a failed exception.</t>
-  </si>
-  <si>
     <t>FillNumber</t>
   </si>
   <si>
@@ -223,6 +217,18 @@
   </si>
   <si>
     <t>ProcessApps</t>
+  </si>
+  <si>
+    <t>If &gt; 0, the robot will retry the same transaction which failed with application exception. This is a local data retry. Orchestrator Queue Item retry are managed at the queue level. Must be integer</t>
+  </si>
+  <si>
+    <t>If &gt; 0 will retry the Initialisation state with a failed exception. Must be an integer.</t>
+  </si>
+  <si>
+    <t>MaxContinuousRetryNumber</t>
+  </si>
+  <si>
+    <t>If &gt; 0 will keep a record of consecutive failed exceptions of the Process state. When this number is reached, the application will fail. Must be an integer.</t>
   </si>
 </sst>
 </file>
@@ -677,13 +683,13 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2">
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE325D7-4482-47A6-A6F6-6E2DBC946231}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1716,156 +1722,156 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1875,10 +1881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1932,135 +1938,145 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>5000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
       </c>
     </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>30000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>120000</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>120000</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>15000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>60000</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>60000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>0.6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>0.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>0.9</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
-        <v>0.9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3038,6 +3054,7 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -1884,7 +1884,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1957,7 @@
         <v>67</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -165,24 +165,6 @@
     <t>wbProcessTransaction_SuppressSuccessful</t>
   </si>
   <si>
-    <t>wbCloseAllApplications_Type</t>
-  </si>
-  <si>
-    <t>wbCloseAllApplications_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbInitAllApplications_Type</t>
-  </si>
-  <si>
-    <t>wbInitAllApplications_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbProcess_Type</t>
-  </si>
-  <si>
-    <t>wbProcess_SuppressSuccessful</t>
-  </si>
-  <si>
     <t>MaxInitRetryNumber</t>
   </si>
   <si>
@@ -192,31 +174,13 @@
     <t>How many doubles to genrate</t>
   </si>
   <si>
-    <t>wbCloseAppsRecover_Type</t>
-  </si>
-  <si>
-    <t>wbCloseAppsRecover_SuppressSuccessful</t>
-  </si>
-  <si>
     <t>Init</t>
   </si>
   <si>
-    <t>RecoverApps</t>
-  </si>
-  <si>
     <t>GetData</t>
   </si>
   <si>
     <t>Process</t>
-  </si>
-  <si>
-    <t>CloseApps</t>
-  </si>
-  <si>
-    <t>InitApps</t>
-  </si>
-  <si>
-    <t>ProcessApps</t>
   </si>
   <si>
     <t>If &gt; 0, the robot will retry the same transaction which failed with application exception. This is a local data retry. Orchestrator Queue Item retry are managed at the queue level. Must be integer</t>
@@ -683,13 +647,13 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2">
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1691,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE325D7-4482-47A6-A6F6-6E2DBC946231}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1689,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -1744,10 +1708,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1755,7 +1719,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1766,10 +1730,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -1777,100 +1741,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1883,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1938,29 +1814,29 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -1658,7 +1658,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784D5B9F-0198-49B6-9912-587488735ACB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +40,6 @@
     <t>OrchestratorURL</t>
   </si>
   <si>
-    <t>https://demo.uipath.com</t>
-  </si>
-  <si>
     <t>MaxRetryNumber</t>
   </si>
   <si>
@@ -54,27 +52,18 @@
     <t>OrchestratorCredentialName</t>
   </si>
   <si>
-    <t>demo.uipath.com_credentials</t>
-  </si>
-  <si>
     <t>The name of Orchestrator credentials. This should be stored in Windows Credential manager. This property is used only if you are using a Queue to store your Transaction Items.</t>
   </si>
   <si>
     <t>OrchestratorTenancyName</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>The name of the Orchestrator tenant.  This property is used only if you are using a Queue to store your Transaction Items.</t>
   </si>
   <si>
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>KibanaDemoQueue</t>
-  </si>
-  <si>
     <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
   </si>
   <si>
@@ -166,12 +155,6 @@
   </si>
   <si>
     <t>MaxInitRetryNumber</t>
-  </si>
-  <si>
-    <t>FillNumber</t>
-  </si>
-  <si>
-    <t>How many doubles to genrate</t>
   </si>
   <si>
     <t>Init</t>
@@ -232,12 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,9 +532,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -604,58 +584,36 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1605,6 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1657,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE325D7-4482-47A6-A6F6-6E2DBC946231}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1686,68 +1643,68 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1808,149 +1765,149 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>5000</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>30000</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>120000</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>1000</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>15000</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>60000</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>0.6</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0.8</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>0.9</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2957,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2F50AF-D181-4C1E-B6A1-53D83F98BE90}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653F01A5-96CE-444B-B156-2951DC0238C5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>If &gt; 0, the robot will retry the same transaction which failed with application exception. This is a local data retry. Orchestrator Queue Item retry are managed at the queue level. Must be integer</t>
   </si>
   <si>
-    <t>####  Legend ####</t>
-  </si>
-  <si>
-    <t>Help. To be written</t>
-  </si>
-  <si>
     <t xml:space="preserve">You may want to mark keys in this settings dictionary with certain colours. One use I've needed for colors was to define the keys needed in the operation of the framework. </t>
   </si>
   <si>
@@ -199,13 +193,19 @@
   </si>
   <si>
     <t>This key is used in the Business Process Layer. The developer is responsible for the keys. The user is responsible for the values.</t>
+  </si>
+  <si>
+    <t>Help regarding this Configuration File</t>
+  </si>
+  <si>
+    <t>####  Legend of Key Value pairs####</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -248,6 +248,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -328,7 +342,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -338,13 +352,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -666,7 +697,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,40 +705,61 @@
     <col min="1" max="1" width="86.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30">
+      <c r="A4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30">
+      <c r="A6" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
+      <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:1" ht="30">
-      <c r="A10" s="8" t="s">
-        <v>53</v>
-      </c>
+    <row r="10" spans="1:1">
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A13" s="14"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="A14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -765,7 +817,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
@@ -1805,7 +1857,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
@@ -1813,7 +1865,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
@@ -1821,7 +1873,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
@@ -2833,7 +2885,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2844,7 +2896,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="3" t="b">
@@ -2855,7 +2907,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
@@ -2866,7 +2918,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="3" t="b">
@@ -2877,7 +2929,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
@@ -2888,7 +2940,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="3" t="b">
@@ -2954,7 +3006,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -2965,7 +3017,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B3">
@@ -2976,7 +3028,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B4">
@@ -2987,7 +3039,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -2999,7 +3051,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -3010,7 +3062,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -3021,7 +3073,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3033,7 +3085,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -3044,7 +3096,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12">
@@ -3055,7 +3107,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -3067,7 +3119,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -3078,7 +3130,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -3089,7 +3141,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B17">

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653F01A5-96CE-444B-B156-2951DC0238C5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A16D63C-27AB-46B5-ACCF-0DFCD3B71A4A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -198,14 +198,47 @@
     <t>Help regarding this Configuration File</t>
   </si>
   <si>
-    <t>####  Legend of Key Value pairs####</t>
+    <t>This is the configuration file used to describe various changeable parameters of the process. You should use this file to store settings that are environment related (like paths to programs or resources), user related (email account names, credential names), or plain data (URL of website or name of SAP report to execute). Below, the purpose of each sheet is explained in more detail.</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>This sheet is the place to store plain data, as well as most user data with the important exception of credential names.</t>
+  </si>
+  <si>
+    <t>Credentials</t>
+  </si>
+  <si>
+    <t>The credentials sheet is the place to store your credential names.There is also one special credential, that needs to be defined only once, and which is comprised of the URL, TenancyName and CredentialName required to authenticate to the Orchestrator server using REST API. This is only used when working with QueueItems.</t>
+  </si>
+  <si>
+    <t>Workblocks</t>
+  </si>
+  <si>
+    <t>The workblock names are of the states in the framework. Define the names of workblocks you create here.</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typically there is not much for you to add here, although you want to check/change the settings of the Retry mechanism implemented in at the framework layer, during transaction processing, exception recovery, and continuous failiure. Also stores constants used throughout the program, like preconfiguered delays, timeouts. </t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>This sheet is used to fetch assets from Orchestrator. The column name is the key, while the column asset hoolds the asset name in Orchestrator. If there is another local key with the same name, it will be overwritten by the value fetched from Orchestrator.</t>
+  </si>
+  <si>
+    <t>####  Legend of Key Value pair colours####</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -263,6 +296,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -342,7 +382,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -375,7 +415,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -694,15 +742,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
@@ -710,56 +758,96 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:1" ht="18.75">
+      <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:1" ht="60">
+      <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>51</v>
+    <row r="4" spans="1:1" ht="15.75">
+      <c r="A4" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>54</v>
+      <c r="A5" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
-      <c r="A6" s="11" t="s">
-        <v>55</v>
+    <row r="6" spans="1:1" ht="15.75">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
-        <v>53</v>
+    <row r="7" spans="1:1" ht="45">
+      <c r="A7" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
-        <v>52</v>
+    <row r="8" spans="1:1" ht="15.75">
+      <c r="A8" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:1" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:1" ht="45">
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:1" ht="15.75">
+      <c r="A12" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:1" ht="30">
+      <c r="A13" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30">
+      <c r="A16" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A16D63C-27AB-46B5-ACCF-0DFCD3B71A4A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2AC2AF-5301-48C4-B21E-727495637090}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -905,7 +905,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2AC2AF-5301-48C4-B21E-727495637090}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88973CA7-3F91-48B8-8BF5-21A8154854E8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -102,24 +102,6 @@
     <t>Image accuracy high value, for images that have low contrast. Must be double</t>
   </si>
   <si>
-    <t>OrchestratorURL</t>
-  </si>
-  <si>
-    <t>The URL of your orchestrator server. This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
-    <t>OrchestratorCredentialName</t>
-  </si>
-  <si>
-    <t>The name of Orchestrator credentials. This should be stored in Windows Credential manager. This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
-    <t>OrchestratorTenancyName</t>
-  </si>
-  <si>
-    <t>The name of the Orchestrator tenant.  This property is used only if you are using a Queue to store your Transaction Items.</t>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t xml:space="preserve">You may want to mark keys in this settings dictionary with certain colours. One use I've needed for colors was to define the keys needed in the operation of the framework. </t>
   </si>
   <si>
-    <t>This Key is used only during Debug. You can delete in production</t>
-  </si>
-  <si>
     <t>This key belongs to user designated category 1</t>
   </si>
   <si>
@@ -232,6 +211,9 @@
   </si>
   <si>
     <t>####  Legend of Key Value pair colours####</t>
+  </si>
+  <si>
+    <t>This key belongs to user designated category 2</t>
   </si>
 </sst>
 </file>
@@ -412,9 +394,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -422,6 +401,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -755,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75">
@@ -763,90 +745,90 @@
     </row>
     <row r="3" spans="1:1" ht="60">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="14" t="s">
-        <v>58</v>
+      <c r="A4" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>59</v>
+      <c r="A5" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="14" t="s">
-        <v>60</v>
+      <c r="A6" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45">
-      <c r="A7" s="15" t="s">
-        <v>61</v>
+      <c r="A7" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="14" t="s">
-        <v>62</v>
+      <c r="A8" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
-        <v>63</v>
+      <c r="A9" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="14" t="s">
-        <v>64</v>
+      <c r="A10" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45">
-      <c r="A11" s="15" t="s">
-        <v>65</v>
+      <c r="A11" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="14" t="s">
-        <v>66</v>
+      <c r="A12" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30">
-      <c r="A13" s="15" t="s">
-        <v>67</v>
+      <c r="A13" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30">
-      <c r="A16" s="16" t="s">
-        <v>51</v>
+      <c r="A16" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13" t="s">
-        <v>52</v>
+      <c r="A20" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -906,10 +888,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
@@ -1896,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC672C-F735-4EF3-8287-9B35E6A7A36A}">
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1944,30 +1926,9 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -2938,9 +2899,6 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2974,68 +2932,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3101,29 +3059,29 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -4239,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88973CA7-3F91-48B8-8BF5-21A8154854E8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D11DD3C-5FAE-4AD8-933C-2FEB18BF924B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1881,7 +1881,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3005,7 +3005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Google Drive\Workspace\UiPath\Templates\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Documents\UiPath\new\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D11DD3C-5FAE-4AD8-933C-2FEB18BF924B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1FD98-5CCA-449A-8C42-03AF8FCF855D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -114,27 +114,12 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>wbInit_Type</t>
-  </si>
-  <si>
     <t>wbGetTransactionData_Type</t>
   </si>
   <si>
     <t>wbProcessTransaction_Type</t>
   </si>
   <si>
-    <t>wbInit_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbGetTransactionData_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>wbProcessTransaction_SuppressSuccessful</t>
-  </si>
-  <si>
-    <t>Do not log successful executions of wb</t>
-  </si>
-  <si>
     <t>Name of Workblock</t>
   </si>
   <si>
@@ -214,6 +199,15 @@
   </si>
   <si>
     <t>This key belongs to user designated category 2</t>
+  </si>
+  <si>
+    <t>wbInitAllApplications_Type</t>
+  </si>
+  <si>
+    <t>wbCloseAllApplications_Type</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -364,13 +358,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -736,99 +727,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
-      <c r="A1" s="8" t="s">
-        <v>49</v>
+      <c r="A1" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:1" ht="60">
-      <c r="A3" s="7" t="s">
-        <v>50</v>
+      <c r="A3" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="13" t="s">
-        <v>51</v>
+      <c r="A4" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
-        <v>52</v>
+      <c r="A5" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="13" t="s">
-        <v>53</v>
+      <c r="A6" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45">
-      <c r="A7" s="14" t="s">
-        <v>54</v>
+      <c r="A7" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="13" t="s">
-        <v>55</v>
+      <c r="A8" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
-        <v>56</v>
+      <c r="A9" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="13" t="s">
-        <v>57</v>
+      <c r="A10" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="45">
-      <c r="A11" s="14" t="s">
-        <v>58</v>
+      <c r="A11" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="13" t="s">
-        <v>59</v>
+      <c r="A12" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30">
-      <c r="A13" s="14" t="s">
-        <v>60</v>
+      <c r="A13" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
-        <v>61</v>
+      <c r="A15" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30">
-      <c r="A16" s="15" t="s">
-        <v>45</v>
+      <c r="A16" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>47</v>
+      <c r="A17" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
-        <v>48</v>
+      <c r="A18" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>46</v>
+      <c r="A19" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
-        <v>62</v>
+      <c r="A20" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +878,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
@@ -895,7 +886,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1">
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
@@ -2906,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B87B5F-FB11-4C00-9666-7AE89EF4CC06}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2931,69 +2922,47 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="b">
-        <v>1</v>
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="b">
-        <v>1</v>
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3005,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -3052,40 +3021,40 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>37</v>
+      <c r="A3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
+      <c r="A4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -3097,7 +3066,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -3108,7 +3077,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -3119,7 +3088,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -3131,7 +3100,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -3142,7 +3111,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12">
@@ -3153,7 +3122,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -3165,7 +3134,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -3176,7 +3145,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -3187,7 +3156,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17">

--- a/ServicesLayer/FirstRun/Data/Config.xlsx
+++ b/ServicesLayer/FirstRun/Data/Config.xlsx
@@ -5,27 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Documents\UiPath\new\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai.dunareanu\Documents\UiPath\UiPath_REFramework\ServicesLayer\FirstRun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1FD98-5CCA-449A-8C42-03AF8FCF855D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71D8299-95ED-4E7C-BC13-03A8FC572C40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
     <sheet name="Settings" sheetId="1" r:id="rId2"/>
     <sheet name="Credentials" sheetId="6" r:id="rId3"/>
-    <sheet name="Workblocks" sheetId="4" r:id="rId4"/>
-    <sheet name="Constants" sheetId="2" r:id="rId5"/>
-    <sheet name="Assets" sheetId="3" r:id="rId6"/>
+    <sheet name="Constants" sheetId="2" r:id="rId4"/>
+    <sheet name="Assets" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -114,25 +113,7 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>wbGetTransactionData_Type</t>
-  </si>
-  <si>
-    <t>wbProcessTransaction_Type</t>
-  </si>
-  <si>
-    <t>Name of Workblock</t>
-  </si>
-  <si>
     <t>MaxInitRetryNumber</t>
-  </si>
-  <si>
-    <t>Init</t>
-  </si>
-  <si>
-    <t>GetData</t>
-  </si>
-  <si>
-    <t>Process</t>
   </si>
   <si>
     <t>MaxContinuousRetryNumber</t>
@@ -177,12 +158,6 @@
     <t>The credentials sheet is the place to store your credential names.There is also one special credential, that needs to be defined only once, and which is comprised of the URL, TenancyName and CredentialName required to authenticate to the Orchestrator server using REST API. This is only used when working with QueueItems.</t>
   </si>
   <si>
-    <t>Workblocks</t>
-  </si>
-  <si>
-    <t>The workblock names are of the states in the framework. Define the names of workblocks you create here.</t>
-  </si>
-  <si>
     <t>Constants</t>
   </si>
   <si>
@@ -199,15 +174,6 @@
   </si>
   <si>
     <t>This key belongs to user designated category 2</t>
-  </si>
-  <si>
-    <t>wbInitAllApplications_Type</t>
-  </si>
-  <si>
-    <t>wbCloseAllApplications_Type</t>
-  </si>
-  <si>
-    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -715,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358C8B53-A61E-4F05-B727-D34F2E27D989}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,7 +694,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75">
@@ -736,90 +702,80 @@
     </row>
     <row r="3" spans="1:1" ht="60">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
       <c r="A4" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
       <c r="A6" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45">
       <c r="A7" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="45">
       <c r="A9" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="45">
+    <row r="11" spans="1:1" ht="30">
       <c r="A11" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75">
-      <c r="A12" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:1" ht="30">
-      <c r="A13" s="13" t="s">
-        <v>55</v>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:1" ht="30">
+      <c r="A14" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
-        <v>56</v>
+      <c r="A15" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
-      <c r="A16" s="14" t="s">
-        <v>40</v>
+    <row r="16" spans="1:1">
+      <c r="A16" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>42</v>
+      <c r="A17" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
-        <v>57</v>
+      <c r="A18" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2896,81 +2852,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B87B5F-FB11-4C00-9666-7AE89EF4CC06}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
@@ -3028,29 +2909,29 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -4150,7 +4031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
